--- a/LuaFramework_UGUI-master/Assets/Excel/Monster.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Monster.xlsx
@@ -659,7 +659,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB13" sqref="A13:AB16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
         <v>15</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I8" s="1">
         <v>20</v>
